--- a/Rrt_Nawaqis_2025-09-01_00-00.xlsx
+++ b/Rrt_Nawaqis_2025-09-01_00-00.xlsx
@@ -41,7 +41,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Tuesday, 2 September, 2025 12:08 AM</t>
+    <t>Tuesday, 2 September, 2025 12:09 AM</t>
   </si>
   <si>
     <t>1/1</t>
